--- a/001_SQL/Document/Google_drive_sampleData.xlsx
+++ b/001_SQL/Document/Google_drive_sampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YPP4-document\001_SQL\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F21975C-C540-4F5E-8420-3F2038D7D864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552D3EF1-F8B9-421F-BCBF-589E257A8628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet8" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
   <si>
     <t>ObjectType</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>ActionDateTime</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -679,29 +685,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -711,19 +729,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,10 +740,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1004,33 +1010,33 @@
     <row r="17" spans="1:13" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1">
       <c r="G19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2090,7 +2096,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2102,24 +2108,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2192,23 +2198,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2217,7 +2223,7 @@
       <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="14" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2297,12 +2303,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
@@ -2412,14 +2418,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
@@ -2508,12 +2514,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
@@ -2530,15 +2536,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -2556,10 +2562,10 @@
       <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="10" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2626,17 +2632,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="G1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2657,7 +2663,7 @@
       <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3080,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB1B0C2-F3E9-4B04-A4A6-729E90B28A40}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="J1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3094,250 +3100,264 @@
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="10:17">
+      <c r="J1" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="33"/>
+    </row>
+    <row r="2" spans="10:17">
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="P2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" spans="10:17">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="10:17">
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="L4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="10:17">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="K5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="10:17">
+      <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="10:17">
+      <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="10:17">
+      <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="10:17">
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="L11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="O11" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
+    <row r="12" spans="10:17">
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="10:17">
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="10:17">
+      <c r="J14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="K14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="L14" s="2">
         <v>6</v>
       </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="10:17">
+      <c r="J15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
+      <c r="K15" s="2">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="L15" s="2">
         <v>6</v>
       </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12">
+      <c r="J17" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="10:12">
+      <c r="J18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="L18" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12">
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12">
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12">
+      <c r="J21" s="2">
         <v>3</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3354,21 +3374,21 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="K1" s="12" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="K1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
@@ -3386,16 +3406,16 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="14" t="s">
         <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -3415,7 +3435,7 @@
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="15" t="s">
         <v>141</v>
       </c>
       <c r="K3" s="3">
@@ -3487,23 +3507,23 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="L11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="18"/>
+      <c r="L11" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
@@ -3530,10 +3550,10 @@
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="14" t="s">
         <v>67</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -3609,14 +3629,14 @@
       <c r="A17" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
@@ -3634,16 +3654,16 @@
       <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="17" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3804,15 +3824,15 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
